--- a/xlsx/國家_intext.xlsx
+++ b/xlsx/國家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治_國家</t>
+    <t>体育运动_体育运动_奥林匹克运动会_國家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
@@ -356,10 +356,10 @@
     <t>文化</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
-  </si>
-  <si>
-    <t>种族</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>族群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B5%B1</t>
@@ -440,10 +440,10 @@
     <t>周易</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%A6</t>
-  </si>
-  <si>
-    <t>秦</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>秦朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%9D</t>
@@ -482,6 +482,12 @@
     <t>明史</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>王朝</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AD%A6%E4%B8%9C%E6%B8%90</t>
   </si>
   <si>
@@ -572,10 +578,10 @@
     <t>人文地理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4</t>
-  </si>
-  <si>
-    <t>范畴</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4_(%E5%93%B2%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>范畴 (哲学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
@@ -894,12 +900,6 @@
   </si>
   <si>
     <t>重商主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>族群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
@@ -1563,7 +1563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3879,7 +3879,7 @@
         <v>156</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3908,7 +3908,7 @@
         <v>158</v>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3937,7 +3937,7 @@
         <v>160</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3966,7 +3966,7 @@
         <v>162</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -3995,7 +3995,7 @@
         <v>164</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -4024,7 +4024,7 @@
         <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -4111,7 +4111,7 @@
         <v>172</v>
       </c>
       <c r="G88" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4140,7 +4140,7 @@
         <v>174</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4169,7 +4169,7 @@
         <v>176</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4198,7 +4198,7 @@
         <v>178</v>
       </c>
       <c r="G91" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4227,7 +4227,7 @@
         <v>180</v>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4256,7 +4256,7 @@
         <v>182</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4314,7 +4314,7 @@
         <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4343,7 +4343,7 @@
         <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4372,7 +4372,7 @@
         <v>190</v>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -4401,7 +4401,7 @@
         <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4430,7 +4430,7 @@
         <v>194</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -4459,7 +4459,7 @@
         <v>196</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4488,7 +4488,7 @@
         <v>198</v>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4517,7 +4517,7 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4546,7 +4546,7 @@
         <v>202</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4604,7 +4604,7 @@
         <v>206</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4633,7 +4633,7 @@
         <v>208</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4662,7 +4662,7 @@
         <v>210</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4720,7 +4720,7 @@
         <v>214</v>
       </c>
       <c r="G109" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4749,7 +4749,7 @@
         <v>216</v>
       </c>
       <c r="G110" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4778,7 +4778,7 @@
         <v>218</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4894,7 +4894,7 @@
         <v>226</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4923,7 +4923,7 @@
         <v>228</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4952,7 +4952,7 @@
         <v>230</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -4981,7 +4981,7 @@
         <v>232</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5068,7 +5068,7 @@
         <v>238</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5097,7 +5097,7 @@
         <v>240</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -5126,7 +5126,7 @@
         <v>242</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5155,7 +5155,7 @@
         <v>244</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5184,7 +5184,7 @@
         <v>246</v>
       </c>
       <c r="G125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5213,7 +5213,7 @@
         <v>248</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5242,7 +5242,7 @@
         <v>250</v>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5271,7 +5271,7 @@
         <v>252</v>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5300,7 +5300,7 @@
         <v>254</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5329,7 +5329,7 @@
         <v>256</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5358,7 +5358,7 @@
         <v>258</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5445,7 +5445,7 @@
         <v>264</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -5474,7 +5474,7 @@
         <v>266</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5503,7 +5503,7 @@
         <v>268</v>
       </c>
       <c r="G136" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5532,7 +5532,7 @@
         <v>270</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5561,7 +5561,7 @@
         <v>272</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5619,7 +5619,7 @@
         <v>276</v>
       </c>
       <c r="G140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5648,7 +5648,7 @@
         <v>278</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5735,7 +5735,7 @@
         <v>284</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -5764,7 +5764,7 @@
         <v>286</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -5793,7 +5793,7 @@
         <v>288</v>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5822,7 +5822,7 @@
         <v>290</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5903,10 +5903,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5932,10 +5932,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5961,10 +5961,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5990,13 +5990,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6019,13 +6019,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6048,13 +6048,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6077,10 +6077,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6106,10 +6106,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6135,13 +6135,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6164,13 +6164,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6193,13 +6193,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6222,13 +6222,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6251,13 +6251,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6280,13 +6280,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6309,10 +6309,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6338,13 +6338,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6367,10 +6367,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6396,13 +6396,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6425,10 +6425,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6454,13 +6454,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6483,13 +6483,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -6512,10 +6512,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6541,10 +6541,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6570,10 +6570,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6599,10 +6599,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6628,10 +6628,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6657,10 +6657,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6686,10 +6686,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6715,10 +6715,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6744,10 +6744,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6773,10 +6773,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6802,13 +6802,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -6831,13 +6831,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -6860,10 +6860,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6889,13 +6889,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -6918,13 +6918,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -6947,13 +6947,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -6976,13 +6976,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7005,13 +7005,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7034,13 +7034,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7063,13 +7063,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7092,10 +7092,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7121,10 +7121,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7150,10 +7150,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7179,10 +7179,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7208,10 +7208,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7237,10 +7237,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7266,10 +7266,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7295,13 +7295,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7324,13 +7324,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7353,13 +7353,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -7385,10 +7385,10 @@
         <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -7411,18 +7411,47 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>395</v>
+      </c>
+      <c r="F202" t="s">
+        <v>397</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>4</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>202</v>
+      </c>
+      <c r="E203" t="s">
         <v>398</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F203" t="s">
         <v>399</v>
       </c>
-      <c r="G202" t="n">
-        <v>1</v>
-      </c>
-      <c r="H202" t="s">
-        <v>4</v>
-      </c>
-      <c r="I202" t="n">
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="s">
+        <v>4</v>
+      </c>
+      <c r="I203" t="n">
         <v>3</v>
       </c>
     </row>
